--- a/hardware_development/ListOfComponents.xlsx
+++ b/hardware_development/ListOfComponents.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven Onderbeke\Desktop\RAMON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven Onderbeke\Desktop\PMT leech\hardware_development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2FDC5C-D282-45A4-83E8-41AEBD77B755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8A55CC-3F5F-4ABE-95DF-25CE89C15052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>Electronic components (ICs, resistors, capacitors, diodes, ...)</t>
   </si>
@@ -129,6 +129,42 @@
   </si>
   <si>
     <t>LEDS 0805</t>
+  </si>
+  <si>
+    <t>2322075</t>
+  </si>
+  <si>
+    <t>150080BS75000</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>teensy koelvin</t>
+  </si>
+  <si>
+    <t>HSB03-121218</t>
+  </si>
+  <si>
+    <t>490-HSB03-121218</t>
+  </si>
+  <si>
+    <t>PMT Leech PCB 5 stuks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> W202502242057287 </t>
+  </si>
+  <si>
+    <t>JLCPCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC voet lange poten </t>
+  </si>
+  <si>
+    <t>esengo</t>
+  </si>
+  <si>
+    <t>t2AJ1401</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1332,7 @@
   <dimension ref="B1:AR54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1328,7 +1364,7 @@
       </c>
       <c r="C2" s="2">
         <f>H11</f>
-        <v>12.75</v>
+        <v>20.955000000000002</v>
       </c>
     </row>
     <row r="3" spans="2:44" x14ac:dyDescent="0.3">
@@ -1355,7 +1391,7 @@
       </c>
       <c r="C5" s="2">
         <f>AI11</f>
-        <v>0</v>
+        <v>29.19</v>
       </c>
     </row>
     <row r="6" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1373,7 +1409,7 @@
       </c>
       <c r="C7" s="4">
         <f>SUM(C2:C6)</f>
-        <v>72.25</v>
+        <v>109.645</v>
       </c>
     </row>
     <row r="9" spans="2:44" x14ac:dyDescent="0.3">
@@ -1506,7 +1542,7 @@
       </c>
       <c r="H11" s="3">
         <f>SUM(H12:H201)</f>
-        <v>12.75</v>
+        <v>20.955000000000002</v>
       </c>
       <c r="K11" t="s">
         <v>13</v>
@@ -1529,7 +1565,7 @@
       </c>
       <c r="AI11" s="3">
         <f>SUM(AI12:AI200)</f>
-        <v>0</v>
+        <v>29.19</v>
       </c>
       <c r="AL11" t="s">
         <v>13</v>
@@ -1593,14 +1629,27 @@
         <f>PRODUCT(Table134[[#This Row],[Unit Price]],Table134[[#This Row],[Quantity]])</f>
         <v>0</v>
       </c>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="2"/>
+      <c r="AC12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>29.19</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
       <c r="AI12" s="2">
         <f>PRODUCT(Table135[[#This Row],[Unit Price]],Table135[[#This Row],[Quantity]])</f>
-        <v>0</v>
+        <v>29.19</v>
       </c>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
@@ -1676,13 +1725,24 @@
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.185</v>
+      </c>
+      <c r="G14">
+        <v>35</v>
+      </c>
       <c r="H14" s="2">
         <f>PRODUCT(Table1[[#This Row],[Unit Price]],Table1[[#This Row],[Quantity]])</f>
-        <v>0</v>
+        <v>6.4749999999999996</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1722,14 +1782,27 @@
       </c>
     </row>
     <row r="15" spans="2:44" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
       <c r="H15" s="2">
         <f>PRODUCT(Table1[[#This Row],[Unit Price]],Table1[[#This Row],[Quantity]])</f>
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1769,10 +1842,18 @@
       </c>
     </row>
     <row r="16" spans="2:44" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="H16" s="2">
         <f>PRODUCT(Table1[[#This Row],[Unit Price]],Table1[[#This Row],[Quantity]])</f>
